--- a/TestData/Registration.xlsx
+++ b/TestData/Registration.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,111 +473,108 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D5:D6" r:id="rId2" display="admin@yourstore.com"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3:D4" r:id="rId1" display="admin@yourstore.com"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D1" r:id="rId3"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
